--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema5a</t>
   </si>
   <si>
     <t>Plxnb3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5290683333333334</v>
+        <v>0.4993116666666666</v>
       </c>
       <c r="H2">
-        <v>1.587205</v>
+        <v>1.497935</v>
       </c>
       <c r="I2">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="J2">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6053406666666666</v>
+        <v>0.4640010000000001</v>
       </c>
       <c r="N2">
-        <v>1.816022</v>
+        <v>1.392003</v>
       </c>
       <c r="O2">
-        <v>0.1736372177305929</v>
+        <v>0.128664373327748</v>
       </c>
       <c r="P2">
-        <v>0.1736372177305928</v>
+        <v>0.128664373327748</v>
       </c>
       <c r="Q2">
-        <v>0.3202665776122222</v>
+        <v>0.231681112645</v>
       </c>
       <c r="R2">
-        <v>2.88239919851</v>
+        <v>2.085130013805</v>
       </c>
       <c r="S2">
-        <v>0.002200230411004042</v>
+        <v>0.001439311305231187</v>
       </c>
       <c r="T2">
-        <v>0.002200230411004042</v>
+        <v>0.001439311305231187</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5290683333333334</v>
+        <v>0.4993116666666666</v>
       </c>
       <c r="H3">
-        <v>1.587205</v>
+        <v>1.497935</v>
       </c>
       <c r="I3">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="J3">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.601197</v>
       </c>
       <c r="O3">
-        <v>0.153096929507777</v>
+        <v>0.148000405587682</v>
       </c>
       <c r="P3">
-        <v>0.153096929507777</v>
+        <v>0.148000405587682</v>
       </c>
       <c r="Q3">
-        <v>0.2823808760427778</v>
+        <v>0.2664987809105555</v>
       </c>
       <c r="R3">
-        <v>2.541427884385</v>
+        <v>2.398489028195</v>
       </c>
       <c r="S3">
-        <v>0.001939955756818166</v>
+        <v>0.00165561492611888</v>
       </c>
       <c r="T3">
-        <v>0.001939955756818166</v>
+        <v>0.00165561492611888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5290683333333334</v>
+        <v>0.4993116666666666</v>
       </c>
       <c r="H4">
-        <v>1.587205</v>
+        <v>1.497935</v>
       </c>
       <c r="I4">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="J4">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.403863333333333</v>
+        <v>1.709312</v>
       </c>
       <c r="N4">
-        <v>4.21159</v>
+        <v>5.127936</v>
       </c>
       <c r="O4">
-        <v>0.4026871754978671</v>
+        <v>0.4739807830190013</v>
       </c>
       <c r="P4">
-        <v>0.4026871754978671</v>
+        <v>0.4739807830190014</v>
       </c>
       <c r="Q4">
-        <v>0.7427396339944445</v>
+        <v>0.8534794235733332</v>
       </c>
       <c r="R4">
-        <v>6.684656705950001</v>
+        <v>7.681314812159999</v>
       </c>
       <c r="S4">
-        <v>0.005102619019307317</v>
+        <v>0.005302212895591452</v>
       </c>
       <c r="T4">
-        <v>0.005102619019307318</v>
+        <v>0.005302212895591453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5290683333333334</v>
+        <v>0.4993116666666666</v>
       </c>
       <c r="H5">
-        <v>1.587205</v>
+        <v>1.497935</v>
       </c>
       <c r="I5">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="J5">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9433016666666667</v>
+        <v>0.8992443333333332</v>
       </c>
       <c r="N5">
-        <v>2.829905</v>
+        <v>2.697732999999999</v>
       </c>
       <c r="O5">
-        <v>0.270578677263763</v>
+        <v>0.2493544380655686</v>
       </c>
       <c r="P5">
-        <v>0.270578677263763</v>
+        <v>0.2493544380655686</v>
       </c>
       <c r="Q5">
-        <v>0.499071040613889</v>
+        <v>0.4490031868172221</v>
       </c>
       <c r="R5">
-        <v>4.491639365525001</v>
+        <v>4.041028681354999</v>
       </c>
       <c r="S5">
-        <v>0.003428616526260361</v>
+        <v>0.002789417555418518</v>
       </c>
       <c r="T5">
-        <v>0.003428616526260361</v>
+        <v>0.002789417555418518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>96.149158</v>
       </c>
       <c r="I6">
-        <v>0.7676050216609417</v>
+        <v>0.718040506382581</v>
       </c>
       <c r="J6">
-        <v>0.7676050216609416</v>
+        <v>0.7180405063825809</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6053406666666666</v>
+        <v>0.4640010000000001</v>
       </c>
       <c r="N6">
-        <v>1.816022</v>
+        <v>1.392003</v>
       </c>
       <c r="O6">
-        <v>0.1736372177305929</v>
+        <v>0.128664373327748</v>
       </c>
       <c r="P6">
-        <v>0.1736372177305928</v>
+        <v>0.128664373327748</v>
       </c>
       <c r="Q6">
-        <v>19.40099846771956</v>
+        <v>14.871101820386</v>
       </c>
       <c r="R6">
-        <v>174.608986209476</v>
+        <v>133.839916383474</v>
       </c>
       <c r="S6">
-        <v>0.1332848002772374</v>
+        <v>0.09238623177765366</v>
       </c>
       <c r="T6">
-        <v>0.1332848002772374</v>
+        <v>0.09238623177765365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>96.149158</v>
       </c>
       <c r="I7">
-        <v>0.7676050216609417</v>
+        <v>0.718040506382581</v>
       </c>
       <c r="J7">
-        <v>0.7676050216609416</v>
+        <v>0.7180405063825809</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.601197</v>
       </c>
       <c r="O7">
-        <v>0.153096929507777</v>
+        <v>0.148000405587682</v>
       </c>
       <c r="P7">
-        <v>0.153096929507777</v>
+        <v>0.148000405587682</v>
       </c>
       <c r="Q7">
         <v>17.10597148245845</v>
@@ -883,10 +883,10 @@
         <v>153.953743342126</v>
       </c>
       <c r="S7">
-        <v>0.1175179718910408</v>
+        <v>0.1062702861730066</v>
       </c>
       <c r="T7">
-        <v>0.1175179718910408</v>
+        <v>0.1062702861730066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>96.149158</v>
       </c>
       <c r="I8">
-        <v>0.7676050216609417</v>
+        <v>0.718040506382581</v>
       </c>
       <c r="J8">
-        <v>0.7676050216609416</v>
+        <v>0.7180405063825809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.403863333333333</v>
+        <v>1.709312</v>
       </c>
       <c r="N8">
-        <v>4.21159</v>
+        <v>5.127936</v>
       </c>
       <c r="O8">
-        <v>0.4026871754978671</v>
+        <v>0.4739807830190013</v>
       </c>
       <c r="P8">
-        <v>0.4026871754978671</v>
+        <v>0.4739807830190014</v>
       </c>
       <c r="Q8">
-        <v>44.99342581569112</v>
+        <v>54.78296985309867</v>
       </c>
       <c r="R8">
-        <v>404.94083234122</v>
+        <v>493.046728677888</v>
       </c>
       <c r="S8">
-        <v>0.3091046980706237</v>
+        <v>0.340337401454576</v>
       </c>
       <c r="T8">
-        <v>0.3091046980706237</v>
+        <v>0.3403374014545759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>96.149158</v>
       </c>
       <c r="I9">
-        <v>0.7676050216609417</v>
+        <v>0.718040506382581</v>
       </c>
       <c r="J9">
-        <v>0.7676050216609416</v>
+        <v>0.7180405063825809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9433016666666667</v>
+        <v>0.8992443333333332</v>
       </c>
       <c r="N9">
-        <v>2.829905</v>
+        <v>2.697732999999999</v>
       </c>
       <c r="O9">
-        <v>0.270578677263763</v>
+        <v>0.2493544380655686</v>
       </c>
       <c r="P9">
-        <v>0.270578677263763</v>
+        <v>0.2493544380655686</v>
       </c>
       <c r="Q9">
-        <v>30.23255366333223</v>
+        <v>28.82052849542378</v>
       </c>
       <c r="R9">
-        <v>272.09298296999</v>
+        <v>259.384756458814</v>
       </c>
       <c r="S9">
-        <v>0.2076975514220397</v>
+        <v>0.1790465869773448</v>
       </c>
       <c r="T9">
-        <v>0.2076975514220397</v>
+        <v>0.1790465869773447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.174090999999999</v>
+        <v>12.08377133333333</v>
       </c>
       <c r="H10">
-        <v>27.522273</v>
+        <v>36.251314</v>
       </c>
       <c r="I10">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="J10">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6053406666666666</v>
+        <v>0.4640010000000001</v>
       </c>
       <c r="N10">
-        <v>1.816022</v>
+        <v>1.392003</v>
       </c>
       <c r="O10">
-        <v>0.1736372177305929</v>
+        <v>0.128664373327748</v>
       </c>
       <c r="P10">
-        <v>0.1736372177305928</v>
+        <v>0.128664373327748</v>
       </c>
       <c r="Q10">
-        <v>5.553450362000666</v>
+        <v>5.606881982438001</v>
       </c>
       <c r="R10">
-        <v>49.98105325800599</v>
+        <v>50.461937841942</v>
       </c>
       <c r="S10">
-        <v>0.03815218704235145</v>
+        <v>0.03483257021812401</v>
       </c>
       <c r="T10">
-        <v>0.03815218704235145</v>
+        <v>0.03483257021812402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.174090999999999</v>
+        <v>12.08377133333333</v>
       </c>
       <c r="H11">
-        <v>27.522273</v>
+        <v>36.251314</v>
       </c>
       <c r="I11">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="J11">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.601197</v>
       </c>
       <c r="O11">
-        <v>0.153096929507777</v>
+        <v>0.148000405587682</v>
       </c>
       <c r="P11">
-        <v>0.153096929507777</v>
+        <v>0.148000405587682</v>
       </c>
       <c r="Q11">
-        <v>4.896508995642333</v>
+        <v>6.449499469206445</v>
       </c>
       <c r="R11">
-        <v>44.068580960781</v>
+        <v>58.045495222858</v>
       </c>
       <c r="S11">
-        <v>0.03363900185991801</v>
+        <v>0.04006730368795865</v>
       </c>
       <c r="T11">
-        <v>0.03363900185991801</v>
+        <v>0.04006730368795866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.174090999999999</v>
+        <v>12.08377133333333</v>
       </c>
       <c r="H12">
-        <v>27.522273</v>
+        <v>36.251314</v>
       </c>
       <c r="I12">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="J12">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.403863333333333</v>
+        <v>1.709312</v>
       </c>
       <c r="N12">
-        <v>4.21159</v>
+        <v>5.127936</v>
       </c>
       <c r="O12">
-        <v>0.4026871754978671</v>
+        <v>0.4739807830190013</v>
       </c>
       <c r="P12">
-        <v>0.4026871754978671</v>
+        <v>0.4739807830190014</v>
       </c>
       <c r="Q12">
-        <v>12.87916997156333</v>
+        <v>20.65493534532267</v>
       </c>
       <c r="R12">
-        <v>115.91252974407</v>
+        <v>185.894418107904</v>
       </c>
       <c r="S12">
-        <v>0.08847985840793611</v>
+        <v>0.1283181076434792</v>
       </c>
       <c r="T12">
-        <v>0.08847985840793612</v>
+        <v>0.1283181076434792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.08377133333333</v>
+      </c>
+      <c r="H13">
+        <v>36.251314</v>
+      </c>
+      <c r="I13">
+        <v>0.2707242830102989</v>
+      </c>
+      <c r="J13">
+        <v>0.2707242830102989</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8992443333333332</v>
+      </c>
+      <c r="N13">
+        <v>2.697732999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2493544380655686</v>
+      </c>
+      <c r="P13">
+        <v>0.2493544380655686</v>
+      </c>
+      <c r="Q13">
+        <v>10.86626289679578</v>
+      </c>
+      <c r="R13">
+        <v>97.79636607116198</v>
+      </c>
+      <c r="S13">
+        <v>0.06750630146073702</v>
+      </c>
+      <c r="T13">
+        <v>0.06750630146073704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.174090999999999</v>
-      </c>
-      <c r="H13">
-        <v>27.522273</v>
-      </c>
-      <c r="I13">
-        <v>0.2197235566256685</v>
-      </c>
-      <c r="J13">
-        <v>0.2197235566256685</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.9433016666666667</v>
-      </c>
-      <c r="N13">
-        <v>2.829905</v>
-      </c>
-      <c r="O13">
-        <v>0.270578677263763</v>
-      </c>
-      <c r="P13">
-        <v>0.270578677263763</v>
-      </c>
-      <c r="Q13">
-        <v>8.653935330451667</v>
-      </c>
-      <c r="R13">
-        <v>77.88541797406499</v>
-      </c>
-      <c r="S13">
-        <v>0.05945250931546291</v>
-      </c>
-      <c r="T13">
-        <v>0.05945250931546291</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.002171666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.006515</v>
+      </c>
+      <c r="I14">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="J14">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4640010000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.392003</v>
+      </c>
+      <c r="O14">
+        <v>0.128664373327748</v>
+      </c>
+      <c r="P14">
+        <v>0.128664373327748</v>
+      </c>
+      <c r="Q14">
+        <v>0.001007655505</v>
+      </c>
+      <c r="R14">
+        <v>0.009068899545</v>
+      </c>
+      <c r="S14">
+        <v>6.260026739198418E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.260026739198418E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.002171666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.006515</v>
+      </c>
+      <c r="I15">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="J15">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5337323333333334</v>
+      </c>
+      <c r="N15">
+        <v>1.601197</v>
+      </c>
+      <c r="O15">
+        <v>0.148000405587682</v>
+      </c>
+      <c r="P15">
+        <v>0.148000405587682</v>
+      </c>
+      <c r="Q15">
+        <v>0.001159088717222222</v>
+      </c>
+      <c r="R15">
+        <v>0.010431798455</v>
+      </c>
+      <c r="S15">
+        <v>7.200800597932826E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.200800597932826E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.002171666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.006515</v>
+      </c>
+      <c r="I16">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="J16">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.709312</v>
+      </c>
+      <c r="N16">
+        <v>5.127936</v>
+      </c>
+      <c r="O16">
+        <v>0.4739807830190013</v>
+      </c>
+      <c r="P16">
+        <v>0.4739807830190014</v>
+      </c>
+      <c r="Q16">
+        <v>0.003712055893333333</v>
+      </c>
+      <c r="R16">
+        <v>0.03340850304</v>
+      </c>
+      <c r="S16">
+        <v>2.306102535475726E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.306102535475727E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.002171666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.006515</v>
+      </c>
+      <c r="I17">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="J17">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8992443333333332</v>
+      </c>
+      <c r="N17">
+        <v>2.697732999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2493544380655686</v>
+      </c>
+      <c r="P17">
+        <v>0.2493544380655686</v>
+      </c>
+      <c r="Q17">
+        <v>0.001952858943888889</v>
+      </c>
+      <c r="R17">
+        <v>0.017575730495</v>
+      </c>
+      <c r="S17">
+        <v>1.213207206824839E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.213207206824839E-05</v>
       </c>
     </row>
   </sheetData>
